--- a/cms/Components.xlsx
+++ b/cms/Components.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Link</t>
   </si>
@@ -103,6 +103,36 @@
   </si>
   <si>
     <t>&lt;div class="figure"&gt;«PICTURE»&lt;div class="legend"&gt;«CONTENT:Load»&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>PUZZLE-SCRIPT</t>
+  </si>
+  <si>
+    <t>«PUZZLE-LOAD»«PUZZLE-INTERACT»</t>
+  </si>
+  <si>
+    <t>PUZZLE-LOAD</t>
+  </si>
+  <si>
+    <t>&lt;script type="text/javascript"&gt;PuzzleScript.embed(document.getElementById('«PUZZLE-MARK»'),"«CONTENT:Load»");&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>PUZZLE-MARK</t>
+  </si>
+  <si>
+    <t>puzzlescript-game</t>
+  </si>
+  <si>
+    <t>PUZZLE-INTERACT</t>
+  </si>
+  <si>
+    <t>&lt;script src="codes/game/interactions.js" type="text/javascript"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>PUZZLE-SCRIPT-PRE</t>
+  </si>
+  <si>
+    <t>&lt;link href="codes/game/puzzlescript-mobile.css" rel="stylesheet" type="text/css"&gt;&lt;script src="codes/game/puzzlescript-embed.js" type="text/javascript"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -909,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1035,6 +1065,46 @@
         <v>27</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
